--- a/Assets/Resources/Configs/Excel/TalkConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/TalkConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="7860"/>
+    <workbookView windowWidth="18480" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Talk" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>id</t>
   </si>
@@ -31,19 +31,40 @@
     <t>string</t>
   </si>
   <si>
-    <t>北边{0}的{1}又开始祸害人了,昨晚连商队的马都被咬死了三匹-你要是能去击杀{2}头，不仅能救附近村民-镇上铁匠铺还能给你打{3}把{4}- 这活儿，你接不接?</t>
-  </si>
-  <si>
-    <t>“哐当！小子，来打兵器还是修家伙？-我这铺子的淬火水用的是后山冰泉，锻出来的刀砍石头都不卷刃-瞧见墙上那把宽背刀没？昨天刚给镇上护卫队打出来的，劈狼跟切豆腐似的。”</t>
+    <t>北边{0}的{1}又开始祸害人了,昨晚连商队的马都被咬死了三匹-你要是能去击杀{2}头，不仅能救附近村民-我还能给你打{3}把{4}- 这活儿，你接不接?</t>
+  </si>
+  <si>
+    <t>哐当！-小子，来打兵器还是修家伙？-我这铺子用的是后山冰泉，锻出来的刀砍石头都不卷刃-瞧墙上那把宽背刀-昨天刚给镇上护卫队打出来的，劈狼跟切豆腐似的。</t>
   </si>
   <si>
     <t>太好了！有你帮忙，村民们终于能睡个安稳觉了-那些野狼就在黑森林边缘的树下聚集，记得小心它们的獠牙-被咬伤可不是闹着玩的。</t>
   </si>
   <si>
-    <t>“唉…… 我明白，这活儿确实危险，没人愿意拿命冒险-只是…… 村民们又要提心吊胆过日子了。</t>
-  </si>
-  <si>
-    <t>“还没出发吗？-记住，狼群一般在傍晚回巢穴，这时候去能一窝端-要是遇到受伤的狼别大意，它们反扑起来更凶。</t>
+    <t>唉…… 我明白，这活儿确实危险，没人愿意拿命冒险-只是…… 村民们又要提心吊胆过日子了。</t>
+  </si>
+  <si>
+    <t>还没出发吗？-记住，狼群一般在傍晚回巢穴，这时候去能一窝端-要是遇到受伤的狼别大意，它们反扑起来更凶。</t>
+  </si>
+  <si>
+    <t>嘿，冒险者！咱这小镇最近可缺新鲜水果啦-尤其是那红扑扑的大苹果-你看，我这生意都快没法做咯-要是你能帮我去收集些苹果，我定不会亏待你-怎么样，有兴趣不？</t>
+  </si>
+  <si>
+    <t>太好啦，你可算是答应了-你就朝着东边去，那儿的苹果又大又甜-记得多采点回来，我这还等着开张呢-对了，采回来的苹果可得完好无损-不然可卖不上好价钱！</t>
+  </si>
+  <si>
+    <t>怎么样，苹果采得如何啦？-我这儿的顾客都眼巴巴地盼着呢</t>
+  </si>
+  <si>
+    <t>唉，也是，冒险者你肯定有更要紧的事要忙-不过咱这小镇的苹果确实快断供了-要是你后来改主意了，随时来寻我就行</t>
+  </si>
+  <si>
+    <t>哎哟！这苹果看着就甜！-红得发亮，还没半点磕碰，太符合我要的品相了-来，这是说好的{0}个{1}和{2}瓶{3}的报酬</t>
+  </si>
+  <si>
+    <t>新鲜果子、应急药水都有-要水果解渴，还是药水备着防小伤？</t>
+  </si>
+  <si>
+    <t>哎呀！你真把事情办好了！-多亏你帮忙-这是答应你的奖励{0}个{1}</t>
   </si>
 </sst>
 </file>
@@ -51,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -447,10 +468,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -519,14 +540,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
